--- a/数据更新记录-更新到190305.xlsx
+++ b/数据更新记录-更新到190305.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="452">
   <si>
     <t>日期</t>
   </si>
@@ -1391,6 +1391,25 @@
   </si>
   <si>
     <t>Vagrancy(流浪)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue &amp; White Porcelain(青花瓷)</t>
+  </si>
+  <si>
+    <t>连衣裙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1594,14 +1613,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFEDEF5"/>
+          <bgColor rgb="FFFFC1E1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC1E1"/>
+          <bgColor rgb="FFFEDEF5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4259,11 +4278,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6050,46 +6069,78 @@
     </row>
     <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B56" s="18">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>376</v>
+        <v>449</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>450</v>
       </c>
       <c r="G56" s="16"/>
-      <c r="H56" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16" t="s">
-        <v>376</v>
-      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="K56" s="16"/>
       <c r="L56" s="18" t="s">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
+    </row>
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B57" s="18">
+        <v>322</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" priority="4">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" priority="4">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
